--- a/InputData/elec/GDPbES/Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/GDPbES/Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CO\elec\GDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{972FA98F-E0C8-4209-852B-246DF8E1FF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A2CCAB7-1FB4-43F8-97D8-33112FF75460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="360" windowWidth="14400" windowHeight="7290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1820" yWindow="720" windowWidth="14480" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -530,9 +530,9 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -540,80 +540,80 @@
         <v>41</v>
       </c>
       <c r="C1" s="5">
-        <v>45237</v>
+        <v>45294</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -635,13 +635,13 @@
       <selection activeCell="AK26" sqref="AK26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.40625" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -754,7 +754,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>39</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>40</v>
       </c>
